--- a/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
+++ b/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kendrick\Documents\UWF Stuff\Capstone!\Week 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kendrick\Documents\UWF Stuff\Capstone!\Git Repo\FoodGiantFlyer\Project Documentation\Capstone Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>06/11/207</t>
   </si>
@@ -208,6 +208,18 @@
   <si>
     <t>Estimated Hours
 For Engineer</t>
+  </si>
+  <si>
+    <t>Latest version of prototype (including source code and Design Documents
+Refined Schedule
+Progress Report 1
+Weekly Status</t>
+  </si>
+  <si>
+    <t>Latest version of prototype (including source code and Design Documents
+Refined Schedule
+Progress Report 2
+Weekly Status</t>
   </si>
 </sst>
 </file>
@@ -469,104 +481,104 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -915,7 +927,7 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12:AH14"/>
+      <selection activeCell="M8" sqref="M8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,10 +961,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="2">
         <v>42785</v>
       </c>
@@ -1055,1094 +1067,1193 @@
       <c r="AZ1" s="9"/>
     </row>
     <row r="2" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="V2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12" t="s">
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12" t="s">
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12" t="s">
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="s">
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12" t="s">
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12" t="s">
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12" t="s">
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="12" t="s">
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12" t="s">
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12" t="s">
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="32" t="s">
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AZ2" s="32"/>
+      <c r="AZ2" s="13"/>
     </row>
     <row r="3" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
     </row>
     <row r="4" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
     </row>
     <row r="5" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
     </row>
     <row r="6" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
     </row>
     <row r="7" spans="1:53" s="6" customFormat="1" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12" t="s">
+      <c r="R7" s="17"/>
+      <c r="S7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12" t="s">
+      <c r="T7" s="17"/>
+      <c r="U7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="s">
+      <c r="V7" s="17"/>
+      <c r="W7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="17" t="s">
+      <c r="X7" s="17"/>
+      <c r="Y7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="12" t="s">
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12" t="s">
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12" t="s">
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12" t="s">
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12" t="s">
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12" t="s">
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12" t="s">
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12" t="s">
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12" t="s">
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12" t="s">
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="12" t="s">
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="12" t="s">
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
     </row>
     <row r="8" spans="1:53" s="6" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="19" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="19" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="19" t="s">
+      <c r="N8" s="25"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="19" t="s">
+      <c r="R8" s="25"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="25" t="s">
+      <c r="X8" s="25"/>
+      <c r="Y8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="19" t="s">
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="19" t="s">
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="19" t="s">
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="19" t="s">
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="19" t="s">
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="30" t="s">
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AZ8" s="30"/>
+      <c r="AZ8" s="26"/>
     </row>
     <row r="9" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="26" t="s">
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27" t="s">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="35" t="s">
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="26" t="s">
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27" t="s">
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27" t="s">
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27" t="s">
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27" t="s">
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27" t="s">
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
     </row>
     <row r="10" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="24"/>
+      <c r="AV10" s="24"/>
+      <c r="AW10" s="24"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24"/>
     </row>
     <row r="11" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="27"/>
-      <c r="AZ11" s="27"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
         <v>8</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <v>8</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>3</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10">
         <v>10</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10">
         <v>10</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10">
         <v>15</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10">
         <v>20</v>
       </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10">
         <v>15</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42">
+      <c r="T12" s="10"/>
+      <c r="U12" s="10">
         <v>10</v>
       </c>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42">
+      <c r="V12" s="10"/>
+      <c r="W12" s="10">
         <v>8</v>
       </c>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42">
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10">
         <v>15</v>
       </c>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42">
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10">
         <v>10</v>
       </c>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42">
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10">
         <v>11</v>
       </c>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42">
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10">
         <v>8</v>
       </c>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42">
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10">
         <v>8</v>
       </c>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42">
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10">
         <v>15</v>
       </c>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42">
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10">
         <v>8</v>
       </c>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42">
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10">
         <v>12</v>
       </c>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42">
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10">
         <v>10</v>
       </c>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42">
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10">
         <v>15</v>
       </c>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42">
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10">
         <v>8</v>
       </c>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42">
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10">
         <v>15</v>
       </c>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42">
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10">
         <v>8</v>
       </c>
-      <c r="AZ12" s="42"/>
+      <c r="AZ12" s="10"/>
       <c r="BA12">
         <f>SUM(E12:AZ14)</f>
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="42"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="42"/>
-      <c r="AZ17" s="42"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="AY12:AZ14"/>
-    <mergeCell ref="AO12:AP14"/>
-    <mergeCell ref="AQ12:AR14"/>
-    <mergeCell ref="AS12:AT14"/>
-    <mergeCell ref="AU12:AV14"/>
-    <mergeCell ref="AW12:AX14"/>
-    <mergeCell ref="AE12:AF14"/>
-    <mergeCell ref="AG12:AH14"/>
-    <mergeCell ref="AI12:AJ14"/>
-    <mergeCell ref="AK12:AL14"/>
-    <mergeCell ref="AM12:AN14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="W2:X6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U2:V6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="O2:P6"/>
+    <mergeCell ref="Q2:R6"/>
+    <mergeCell ref="C2:D6"/>
+    <mergeCell ref="S2:T6"/>
+    <mergeCell ref="G2:H6"/>
+    <mergeCell ref="I2:J6"/>
+    <mergeCell ref="K2:L6"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AU2:AV6"/>
+    <mergeCell ref="AW2:AX6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="Y2:Z6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="M2:N6"/>
+    <mergeCell ref="E2:F6"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="I9:N11"/>
+    <mergeCell ref="O9:R11"/>
+    <mergeCell ref="S9:X11"/>
+    <mergeCell ref="AA9:AD11"/>
+    <mergeCell ref="AE9:AJ11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AO9:AR11"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="AY2:AZ6"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AI2:AJ6"/>
+    <mergeCell ref="AG2:AH6"/>
+    <mergeCell ref="AE2:AF6"/>
+    <mergeCell ref="AC2:AD6"/>
+    <mergeCell ref="AA2:AB6"/>
+    <mergeCell ref="AS2:AT6"/>
+    <mergeCell ref="AQ2:AR6"/>
+    <mergeCell ref="AO2:AP6"/>
+    <mergeCell ref="AM2:AN6"/>
+    <mergeCell ref="AK2:AL6"/>
+    <mergeCell ref="AK9:AN11"/>
+    <mergeCell ref="AS9:AV11"/>
+    <mergeCell ref="AW9:AZ11"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AK15:AL17"/>
+    <mergeCell ref="AM15:AN17"/>
+    <mergeCell ref="U15:V17"/>
+    <mergeCell ref="W15:X17"/>
+    <mergeCell ref="Y15:Z17"/>
+    <mergeCell ref="AA15:AB17"/>
+    <mergeCell ref="AC15:AD17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:N17"/>
+    <mergeCell ref="O15:P17"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="S15:T17"/>
     <mergeCell ref="AY15:AZ17"/>
     <mergeCell ref="A12:B14"/>
     <mergeCell ref="C12:D14"/>
@@ -2167,114 +2278,17 @@
     <mergeCell ref="AE15:AF17"/>
     <mergeCell ref="AG15:AH17"/>
     <mergeCell ref="AI15:AJ17"/>
-    <mergeCell ref="AK15:AL17"/>
-    <mergeCell ref="AM15:AN17"/>
-    <mergeCell ref="U15:V17"/>
-    <mergeCell ref="W15:X17"/>
-    <mergeCell ref="Y15:Z17"/>
-    <mergeCell ref="AA15:AB17"/>
-    <mergeCell ref="AC15:AD17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:N17"/>
-    <mergeCell ref="O15:P17"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="S15:T17"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="I15:J17"/>
-    <mergeCell ref="AY2:AZ6"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="Y9:Z11"/>
-    <mergeCell ref="AI2:AJ6"/>
-    <mergeCell ref="AG2:AH6"/>
-    <mergeCell ref="AE2:AF6"/>
-    <mergeCell ref="AC2:AD6"/>
-    <mergeCell ref="AA2:AB6"/>
-    <mergeCell ref="AS2:AT6"/>
-    <mergeCell ref="AQ2:AR6"/>
-    <mergeCell ref="AO2:AP6"/>
-    <mergeCell ref="AM2:AN6"/>
-    <mergeCell ref="AK2:AL6"/>
-    <mergeCell ref="AK9:AN11"/>
-    <mergeCell ref="AS9:AV11"/>
-    <mergeCell ref="AW9:AZ11"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="C9:H11"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="I9:N11"/>
-    <mergeCell ref="O9:R11"/>
-    <mergeCell ref="S9:X11"/>
-    <mergeCell ref="AA9:AD11"/>
-    <mergeCell ref="AE9:AJ11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AO9:AR11"/>
-    <mergeCell ref="AU2:AV6"/>
-    <mergeCell ref="AW2:AX6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="Y2:Z6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="W2:X6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U2:V6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="O2:P6"/>
-    <mergeCell ref="Q2:R6"/>
-    <mergeCell ref="C2:D6"/>
-    <mergeCell ref="S2:T6"/>
-    <mergeCell ref="G2:H6"/>
-    <mergeCell ref="I2:J6"/>
-    <mergeCell ref="K2:L6"/>
-    <mergeCell ref="M2:N6"/>
-    <mergeCell ref="E2:F6"/>
+    <mergeCell ref="AY12:AZ14"/>
+    <mergeCell ref="AO12:AP14"/>
+    <mergeCell ref="AQ12:AR14"/>
+    <mergeCell ref="AS12:AT14"/>
+    <mergeCell ref="AU12:AV14"/>
+    <mergeCell ref="AW12:AX14"/>
+    <mergeCell ref="AE12:AF14"/>
+    <mergeCell ref="AG12:AH14"/>
+    <mergeCell ref="AI12:AJ14"/>
+    <mergeCell ref="AK12:AL14"/>
+    <mergeCell ref="AM12:AN14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
+++ b/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -481,15 +481,72 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,9 +559,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,61 +577,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,44 +927,44 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:N8"/>
+      <selection activeCell="G15" sqref="G15:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" customWidth="1"/>
-    <col min="36" max="36" width="8.88671875" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" customWidth="1"/>
-    <col min="39" max="39" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:53" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="2">
         <v>42785</v>
       </c>
@@ -1066,1086 +1066,1205 @@
       </c>
       <c r="AZ1" s="9"/>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="40" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17" t="s">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17" t="s">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="18" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="17" t="s">
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17" t="s">
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17" t="s">
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="13" t="s">
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AZ2" s="13"/>
+      <c r="AZ2" s="32"/>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
+    <row r="3" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
+    <row r="4" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
     </row>
-    <row r="5" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
+    <row r="5" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
     </row>
-    <row r="6" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
+    <row r="6" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
     </row>
-    <row r="7" spans="1:53" s="6" customFormat="1" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:53" s="6" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="40" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="17" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17" t="s">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17" t="s">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17" t="s">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17" t="s">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17" t="s">
+      <c r="V7" s="12"/>
+      <c r="W7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="37" t="s">
+      <c r="X7" s="12"/>
+      <c r="Y7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="17" t="s">
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17" t="s">
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17" t="s">
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17" t="s">
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17" t="s">
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17" t="s">
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17" t="s">
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17" t="s">
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17" t="s">
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17" t="s">
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="17" t="s">
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="17" t="s">
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
     </row>
-    <row r="8" spans="1:53" s="6" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:53" s="6" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="25" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="29" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="25" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="25" t="s">
+      <c r="N8" s="19"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="25" t="s">
+      <c r="R8" s="19"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="33" t="s">
+      <c r="X8" s="19"/>
+      <c r="Y8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="25" t="s">
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="25" t="s">
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="25" t="s">
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="25" t="s">
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="25" t="s">
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="24"/>
+      <c r="AW8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="26" t="s">
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AZ8" s="26"/>
+      <c r="AZ8" s="42"/>
     </row>
-    <row r="9" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:53" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="28" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="24" t="s">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="16" t="s">
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="28" t="s">
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="24" t="s">
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24" t="s">
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24" t="s">
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24" t="s">
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
     </row>
-    <row r="10" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
+    <row r="10" spans="1:53" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="27"/>
+      <c r="AY10" s="27"/>
+      <c r="AZ10" s="27"/>
     </row>
-    <row r="11" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
+    <row r="11" spans="1:53" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31">
         <v>8</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31">
         <v>8</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10">
+      <c r="H12" s="31"/>
+      <c r="I12" s="31">
         <v>3</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31">
         <v>10</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10">
+      <c r="L12" s="31"/>
+      <c r="M12" s="31">
         <v>10</v>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10">
+      <c r="N12" s="31"/>
+      <c r="O12" s="31">
         <v>15</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10">
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31">
         <v>20</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10">
+      <c r="R12" s="31"/>
+      <c r="S12" s="31">
         <v>15</v>
       </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10">
+      <c r="T12" s="31"/>
+      <c r="U12" s="31">
         <v>10</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10">
+      <c r="V12" s="31"/>
+      <c r="W12" s="31">
         <v>8</v>
       </c>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10">
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31">
         <v>15</v>
       </c>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10">
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31">
         <v>10</v>
       </c>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10">
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31">
         <v>11</v>
       </c>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10">
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31">
         <v>8</v>
       </c>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10">
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31">
         <v>8</v>
       </c>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10">
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31">
         <v>15</v>
       </c>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10">
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31">
         <v>8</v>
       </c>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10">
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31">
         <v>12</v>
       </c>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10">
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31">
         <v>10</v>
       </c>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10">
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31">
         <v>15</v>
       </c>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10">
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31">
         <v>8</v>
       </c>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10">
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31">
         <v>15</v>
       </c>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10">
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31">
         <v>8</v>
       </c>
-      <c r="AZ12" s="10"/>
+      <c r="AZ12" s="31"/>
       <c r="BA12">
         <f>SUM(E12:AZ14)</f>
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="10"/>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="31"/>
+      <c r="AZ14" s="31"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31">
         <v>10</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="31"/>
+      <c r="AZ16" s="31"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="AY12:AZ14"/>
+    <mergeCell ref="AO12:AP14"/>
+    <mergeCell ref="AQ12:AR14"/>
+    <mergeCell ref="AS12:AT14"/>
+    <mergeCell ref="AU12:AV14"/>
+    <mergeCell ref="AW12:AX14"/>
+    <mergeCell ref="AE12:AF14"/>
+    <mergeCell ref="AG12:AH14"/>
+    <mergeCell ref="AI12:AJ14"/>
+    <mergeCell ref="AK12:AL14"/>
+    <mergeCell ref="AM12:AN14"/>
+    <mergeCell ref="AY15:AZ17"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:D14"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:L14"/>
+    <mergeCell ref="M12:N14"/>
+    <mergeCell ref="O12:P14"/>
+    <mergeCell ref="Q12:R14"/>
+    <mergeCell ref="S12:T14"/>
+    <mergeCell ref="U12:V14"/>
+    <mergeCell ref="W12:X14"/>
+    <mergeCell ref="Y12:Z14"/>
+    <mergeCell ref="AA12:AB14"/>
+    <mergeCell ref="AC12:AD14"/>
+    <mergeCell ref="AO15:AP17"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AS15:AT17"/>
+    <mergeCell ref="AU15:AV17"/>
+    <mergeCell ref="AW15:AX17"/>
+    <mergeCell ref="AE15:AF17"/>
+    <mergeCell ref="AG15:AH17"/>
+    <mergeCell ref="AI15:AJ17"/>
+    <mergeCell ref="AK15:AL17"/>
+    <mergeCell ref="AM15:AN17"/>
+    <mergeCell ref="U15:V17"/>
+    <mergeCell ref="W15:X17"/>
+    <mergeCell ref="Y15:Z17"/>
+    <mergeCell ref="AA15:AB17"/>
+    <mergeCell ref="AC15:AD17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:N17"/>
+    <mergeCell ref="O15:P17"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="S15:T17"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="AY2:AZ6"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AI2:AJ6"/>
+    <mergeCell ref="AG2:AH6"/>
+    <mergeCell ref="AE2:AF6"/>
+    <mergeCell ref="AC2:AD6"/>
+    <mergeCell ref="AA2:AB6"/>
+    <mergeCell ref="AS2:AT6"/>
+    <mergeCell ref="AQ2:AR6"/>
+    <mergeCell ref="AO2:AP6"/>
+    <mergeCell ref="AM2:AN6"/>
+    <mergeCell ref="AK2:AL6"/>
+    <mergeCell ref="AK9:AN11"/>
+    <mergeCell ref="AS9:AV11"/>
+    <mergeCell ref="AW9:AZ11"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="I9:N11"/>
+    <mergeCell ref="O9:R11"/>
+    <mergeCell ref="S9:X11"/>
+    <mergeCell ref="AA9:AD11"/>
+    <mergeCell ref="AE9:AJ11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AO9:AR11"/>
+    <mergeCell ref="AU2:AV6"/>
+    <mergeCell ref="AW2:AX6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="Y2:Z6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="M2:N6"/>
+    <mergeCell ref="E2:F6"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
@@ -2170,125 +2289,6 @@
     <mergeCell ref="G2:H6"/>
     <mergeCell ref="I2:J6"/>
     <mergeCell ref="K2:L6"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AU2:AV6"/>
-    <mergeCell ref="AW2:AX6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="Y2:Z6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="M2:N6"/>
-    <mergeCell ref="E2:F6"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="C9:H11"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="I9:N11"/>
-    <mergeCell ref="O9:R11"/>
-    <mergeCell ref="S9:X11"/>
-    <mergeCell ref="AA9:AD11"/>
-    <mergeCell ref="AE9:AJ11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AO9:AR11"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="I15:J17"/>
-    <mergeCell ref="AY2:AZ6"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="Y9:Z11"/>
-    <mergeCell ref="AI2:AJ6"/>
-    <mergeCell ref="AG2:AH6"/>
-    <mergeCell ref="AE2:AF6"/>
-    <mergeCell ref="AC2:AD6"/>
-    <mergeCell ref="AA2:AB6"/>
-    <mergeCell ref="AS2:AT6"/>
-    <mergeCell ref="AQ2:AR6"/>
-    <mergeCell ref="AO2:AP6"/>
-    <mergeCell ref="AM2:AN6"/>
-    <mergeCell ref="AK2:AL6"/>
-    <mergeCell ref="AK9:AN11"/>
-    <mergeCell ref="AS9:AV11"/>
-    <mergeCell ref="AW9:AZ11"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AK15:AL17"/>
-    <mergeCell ref="AM15:AN17"/>
-    <mergeCell ref="U15:V17"/>
-    <mergeCell ref="W15:X17"/>
-    <mergeCell ref="Y15:Z17"/>
-    <mergeCell ref="AA15:AB17"/>
-    <mergeCell ref="AC15:AD17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:N17"/>
-    <mergeCell ref="O15:P17"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="S15:T17"/>
-    <mergeCell ref="AY15:AZ17"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:D14"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:L14"/>
-    <mergeCell ref="M12:N14"/>
-    <mergeCell ref="O12:P14"/>
-    <mergeCell ref="Q12:R14"/>
-    <mergeCell ref="S12:T14"/>
-    <mergeCell ref="U12:V14"/>
-    <mergeCell ref="W12:X14"/>
-    <mergeCell ref="Y12:Z14"/>
-    <mergeCell ref="AA12:AB14"/>
-    <mergeCell ref="AC12:AD14"/>
-    <mergeCell ref="AO15:AP17"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AS15:AT17"/>
-    <mergeCell ref="AU15:AV17"/>
-    <mergeCell ref="AW15:AX17"/>
-    <mergeCell ref="AE15:AF17"/>
-    <mergeCell ref="AG15:AH17"/>
-    <mergeCell ref="AI15:AJ17"/>
-    <mergeCell ref="AY12:AZ14"/>
-    <mergeCell ref="AO12:AP14"/>
-    <mergeCell ref="AQ12:AR14"/>
-    <mergeCell ref="AS12:AT14"/>
-    <mergeCell ref="AU12:AV14"/>
-    <mergeCell ref="AW12:AX14"/>
-    <mergeCell ref="AE12:AF14"/>
-    <mergeCell ref="AG12:AH14"/>
-    <mergeCell ref="AI12:AJ14"/>
-    <mergeCell ref="AK12:AL14"/>
-    <mergeCell ref="AM12:AN14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
+++ b/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -481,18 +481,96 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -500,84 +578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,44 +927,44 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H17"/>
+      <selection activeCell="W7" sqref="W7:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.85546875" customWidth="1"/>
-    <col min="36" max="36" width="8.85546875" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.85546875" customWidth="1"/>
-    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.88671875" customWidth="1"/>
+    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" customWidth="1"/>
+    <col min="36" max="36" width="8.88671875" customWidth="1"/>
+    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" customWidth="1"/>
+    <col min="39" max="39" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:53" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="2">
         <v>42785</v>
       </c>
@@ -1066,1097 +1066,1202 @@
       </c>
       <c r="AZ1" s="9"/>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="V2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="26" t="s">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12" t="s">
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12" t="s">
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12" t="s">
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="s">
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12" t="s">
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12" t="s">
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12" t="s">
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="12" t="s">
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12" t="s">
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12" t="s">
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="32" t="s">
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AZ2" s="32"/>
+      <c r="AZ2" s="13"/>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
+    <row r="3" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
+    <row r="4" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
     </row>
-    <row r="5" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
+    <row r="5" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
     </row>
-    <row r="6" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
+    <row r="6" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
     </row>
-    <row r="7" spans="1:53" s="6" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:53" s="6" customFormat="1" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12" t="s">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12" t="s">
+      <c r="R7" s="17"/>
+      <c r="S7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12" t="s">
+      <c r="T7" s="17"/>
+      <c r="U7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="s">
+      <c r="V7" s="17"/>
+      <c r="W7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="18" t="s">
+      <c r="X7" s="17"/>
+      <c r="Y7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="12" t="s">
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12" t="s">
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12" t="s">
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12" t="s">
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12" t="s">
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12" t="s">
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12" t="s">
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12" t="s">
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12" t="s">
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12" t="s">
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="12" t="s">
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="12" t="s">
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
     </row>
-    <row r="8" spans="1:53" s="6" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:53" s="6" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="19" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="19" t="s">
+      <c r="N8" s="25"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="19" t="s">
+      <c r="R8" s="25"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="25" t="s">
+      <c r="X8" s="25"/>
+      <c r="Y8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="19" t="s">
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="19" t="s">
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="19" t="s">
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="19" t="s">
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="19" t="s">
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="42" t="s">
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AZ8" s="42"/>
+      <c r="AZ8" s="26"/>
     </row>
-    <row r="9" spans="1:53" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="30" t="s">
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="27" t="s">
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="35" t="s">
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="30" t="s">
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="27" t="s">
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27" t="s">
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27" t="s">
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27" t="s">
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27" t="s">
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
     </row>
-    <row r="10" spans="1:53" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
+    <row r="10" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="24"/>
+      <c r="AV10" s="24"/>
+      <c r="AW10" s="24"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24"/>
     </row>
-    <row r="11" spans="1:53" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="27"/>
-      <c r="AZ11" s="27"/>
+    <row r="11" spans="1:53" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
         <v>8</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <v>8</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>3</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10">
         <v>10</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10">
         <v>10</v>
       </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10">
         <v>15</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10">
         <v>20</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10">
         <v>15</v>
       </c>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31">
+      <c r="T12" s="10"/>
+      <c r="U12" s="10">
         <v>10</v>
       </c>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31">
+      <c r="V12" s="10"/>
+      <c r="W12" s="10">
         <v>8</v>
       </c>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31">
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10">
         <v>15</v>
       </c>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31">
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10">
         <v>10</v>
       </c>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31">
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10">
         <v>11</v>
       </c>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31">
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10">
         <v>8</v>
       </c>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31">
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10">
         <v>8</v>
       </c>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31">
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10">
         <v>15</v>
       </c>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31">
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10">
         <v>8</v>
       </c>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31">
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10">
         <v>12</v>
       </c>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31">
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10">
         <v>10</v>
       </c>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31">
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10">
         <v>15</v>
       </c>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31">
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10">
         <v>8</v>
       </c>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31">
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10">
         <v>15</v>
       </c>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31">
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10">
         <v>8</v>
       </c>
-      <c r="AZ12" s="31"/>
+      <c r="AZ12" s="10"/>
       <c r="BA12">
         <f>SUM(E12:AZ14)</f>
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="31"/>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <v>10</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <v>6</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>3</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10">
+        <v>12</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="AY12:AZ14"/>
-    <mergeCell ref="AO12:AP14"/>
-    <mergeCell ref="AQ12:AR14"/>
-    <mergeCell ref="AS12:AT14"/>
-    <mergeCell ref="AU12:AV14"/>
-    <mergeCell ref="AW12:AX14"/>
-    <mergeCell ref="AE12:AF14"/>
-    <mergeCell ref="AG12:AH14"/>
-    <mergeCell ref="AI12:AJ14"/>
-    <mergeCell ref="AK12:AL14"/>
-    <mergeCell ref="AM12:AN14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="W2:X6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U2:V6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="O2:P6"/>
+    <mergeCell ref="Q2:R6"/>
+    <mergeCell ref="C2:D6"/>
+    <mergeCell ref="S2:T6"/>
+    <mergeCell ref="G2:H6"/>
+    <mergeCell ref="I2:J6"/>
+    <mergeCell ref="K2:L6"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AU2:AV6"/>
+    <mergeCell ref="AW2:AX6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="Y2:Z6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="M2:N6"/>
+    <mergeCell ref="E2:F6"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="I9:N11"/>
+    <mergeCell ref="O9:R11"/>
+    <mergeCell ref="S9:X11"/>
+    <mergeCell ref="AA9:AD11"/>
+    <mergeCell ref="AE9:AJ11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AO9:AR11"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="AY2:AZ6"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AI2:AJ6"/>
+    <mergeCell ref="AG2:AH6"/>
+    <mergeCell ref="AE2:AF6"/>
+    <mergeCell ref="AC2:AD6"/>
+    <mergeCell ref="AA2:AB6"/>
+    <mergeCell ref="AS2:AT6"/>
+    <mergeCell ref="AQ2:AR6"/>
+    <mergeCell ref="AO2:AP6"/>
+    <mergeCell ref="AM2:AN6"/>
+    <mergeCell ref="AK2:AL6"/>
+    <mergeCell ref="AK9:AN11"/>
+    <mergeCell ref="AS9:AV11"/>
+    <mergeCell ref="AW9:AZ11"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AK15:AL17"/>
+    <mergeCell ref="AM15:AN17"/>
+    <mergeCell ref="U15:V17"/>
+    <mergeCell ref="W15:X17"/>
+    <mergeCell ref="Y15:Z17"/>
+    <mergeCell ref="AA15:AB17"/>
+    <mergeCell ref="AC15:AD17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:N17"/>
+    <mergeCell ref="O15:P17"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="S15:T17"/>
     <mergeCell ref="AY15:AZ17"/>
     <mergeCell ref="A12:B14"/>
     <mergeCell ref="C12:D14"/>
@@ -2181,114 +2286,17 @@
     <mergeCell ref="AE15:AF17"/>
     <mergeCell ref="AG15:AH17"/>
     <mergeCell ref="AI15:AJ17"/>
-    <mergeCell ref="AK15:AL17"/>
-    <mergeCell ref="AM15:AN17"/>
-    <mergeCell ref="U15:V17"/>
-    <mergeCell ref="W15:X17"/>
-    <mergeCell ref="Y15:Z17"/>
-    <mergeCell ref="AA15:AB17"/>
-    <mergeCell ref="AC15:AD17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:N17"/>
-    <mergeCell ref="O15:P17"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="S15:T17"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="I15:J17"/>
-    <mergeCell ref="AY2:AZ6"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="Y9:Z11"/>
-    <mergeCell ref="AI2:AJ6"/>
-    <mergeCell ref="AG2:AH6"/>
-    <mergeCell ref="AE2:AF6"/>
-    <mergeCell ref="AC2:AD6"/>
-    <mergeCell ref="AA2:AB6"/>
-    <mergeCell ref="AS2:AT6"/>
-    <mergeCell ref="AQ2:AR6"/>
-    <mergeCell ref="AO2:AP6"/>
-    <mergeCell ref="AM2:AN6"/>
-    <mergeCell ref="AK2:AL6"/>
-    <mergeCell ref="AK9:AN11"/>
-    <mergeCell ref="AS9:AV11"/>
-    <mergeCell ref="AW9:AZ11"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="C9:H11"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="I9:N11"/>
-    <mergeCell ref="O9:R11"/>
-    <mergeCell ref="S9:X11"/>
-    <mergeCell ref="AA9:AD11"/>
-    <mergeCell ref="AE9:AJ11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AO9:AR11"/>
-    <mergeCell ref="AU2:AV6"/>
-    <mergeCell ref="AW2:AX6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="Y2:Z6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="M2:N6"/>
-    <mergeCell ref="E2:F6"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="W2:X6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U2:V6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="O2:P6"/>
-    <mergeCell ref="Q2:R6"/>
-    <mergeCell ref="C2:D6"/>
-    <mergeCell ref="S2:T6"/>
-    <mergeCell ref="G2:H6"/>
-    <mergeCell ref="I2:J6"/>
-    <mergeCell ref="K2:L6"/>
+    <mergeCell ref="AY12:AZ14"/>
+    <mergeCell ref="AO12:AP14"/>
+    <mergeCell ref="AQ12:AR14"/>
+    <mergeCell ref="AS12:AT14"/>
+    <mergeCell ref="AU12:AV14"/>
+    <mergeCell ref="AW12:AX14"/>
+    <mergeCell ref="AE12:AF14"/>
+    <mergeCell ref="AG12:AH14"/>
+    <mergeCell ref="AI12:AJ14"/>
+    <mergeCell ref="AK12:AL14"/>
+    <mergeCell ref="AM12:AN14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
+++ b/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>06/11/207</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Client Meeting on 4/14/2017</t>
   </si>
 </sst>
 </file>
@@ -489,15 +492,97 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,88 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -935,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15:X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,1124 +1077,1231 @@
         <v>42953</v>
       </c>
       <c r="AZ1" s="9"/>
-      <c r="BA1" s="44" t="s">
+      <c r="BA1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BB1" s="44"/>
+      <c r="BB1" s="11"/>
     </row>
     <row r="2" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="32" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12" t="s">
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12" t="s">
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="32" t="s">
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="12" t="s">
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12" t="s">
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12" t="s">
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="29" t="s">
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AZ2" s="29"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="4" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
     </row>
     <row r="5" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
     </row>
     <row r="6" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="29"/>
-      <c r="AZ6" s="29"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
     </row>
     <row r="7" spans="1:54" s="6" customFormat="1" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12" t="s">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12" t="s">
+      <c r="T7" s="19"/>
+      <c r="U7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="s">
+      <c r="V7" s="19"/>
+      <c r="W7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12" t="s">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12" t="s">
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12" t="s">
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12" t="s">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12" t="s">
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12" t="s">
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12" t="s">
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12" t="s">
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12" t="s">
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12" t="s">
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12" t="s">
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="12" t="s">
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="12" t="s">
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
     </row>
     <row r="8" spans="1:54" s="6" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="18" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="42" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="18" t="s">
+      <c r="R8" s="32"/>
+      <c r="S8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="27"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="39" t="s">
+      <c r="X8" s="27"/>
+      <c r="Y8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="18" t="s">
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="18" t="s">
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="18" t="s">
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="18" t="s">
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="18" t="s">
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AX8" s="18"/>
-      <c r="AY8" s="38" t="s">
+      <c r="AX8" s="27"/>
+      <c r="AY8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AZ8" s="38"/>
+      <c r="AZ8" s="28"/>
     </row>
     <row r="9" spans="1:54" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="27" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="24" t="s">
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="41" t="s">
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="27" t="s">
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="24" t="s">
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24" t="s">
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24" t="s">
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24" t="s">
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24" t="s">
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
     </row>
     <row r="10" spans="1:54" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
     </row>
     <row r="11" spans="1:54" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>8</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>8</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>3</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
         <v>10</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>10</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
         <v>15</v>
       </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28" t="s">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12">
         <v>15</v>
       </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28">
+      <c r="T12" s="12"/>
+      <c r="U12" s="12">
         <v>10</v>
       </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28">
+      <c r="V12" s="12"/>
+      <c r="W12" s="12">
         <v>8</v>
       </c>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28" t="s">
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28">
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12">
         <v>12</v>
       </c>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28">
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12">
         <v>10</v>
       </c>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28">
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12">
         <v>11</v>
       </c>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28">
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12">
         <v>8</v>
       </c>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28">
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12">
         <v>8</v>
       </c>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28">
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12">
         <v>15</v>
       </c>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28">
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12">
         <v>8</v>
       </c>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28">
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12">
         <v>12</v>
       </c>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28">
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12">
         <v>10</v>
       </c>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28">
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12">
         <v>15</v>
       </c>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28">
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12">
         <v>8</v>
       </c>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28">
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12">
         <v>15</v>
       </c>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28">
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12">
         <v>8</v>
       </c>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="28">
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12">
         <f>SUM(E12:AZ14)</f>
         <v>227</v>
       </c>
-      <c r="BB12" s="28"/>
+      <c r="BB12" s="12"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="28"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>10</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>6</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
         <v>3</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
         <v>12</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
         <v>12</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
         <v>6</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12">
+        <v>8</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12">
+        <v>10</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12">
+        <v>10</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12">
+        <v>6</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12">
         <f>SUM(E15:AZ17)</f>
-        <v>49</v>
-      </c>
-      <c r="BB15" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="BB15" s="12"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
-      <c r="BA17" s="28"/>
-      <c r="BB17" s="28"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BA12:BB14"/>
-    <mergeCell ref="BA15:BB17"/>
-    <mergeCell ref="AY12:AZ14"/>
-    <mergeCell ref="AO12:AP14"/>
-    <mergeCell ref="AQ12:AR14"/>
-    <mergeCell ref="AS12:AT14"/>
-    <mergeCell ref="AU12:AV14"/>
-    <mergeCell ref="AW12:AX14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="W2:X6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U2:V6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="O2:P6"/>
+    <mergeCell ref="Q2:R6"/>
+    <mergeCell ref="C2:D6"/>
+    <mergeCell ref="S2:T6"/>
+    <mergeCell ref="G2:H6"/>
+    <mergeCell ref="I2:J6"/>
+    <mergeCell ref="K2:L6"/>
+    <mergeCell ref="M2:N6"/>
+    <mergeCell ref="E2:F6"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AO9:AR11"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="AU2:AV6"/>
+    <mergeCell ref="AW2:AX6"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="Y2:Z6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AI2:AJ6"/>
+    <mergeCell ref="AG2:AH6"/>
+    <mergeCell ref="AE2:AF6"/>
+    <mergeCell ref="AC2:AD6"/>
+    <mergeCell ref="AA2:AB6"/>
+    <mergeCell ref="AS2:AT6"/>
+    <mergeCell ref="AQ2:AR6"/>
+    <mergeCell ref="AO2:AP6"/>
+    <mergeCell ref="AM2:AN6"/>
+    <mergeCell ref="AK2:AL6"/>
+    <mergeCell ref="AK9:AN11"/>
+    <mergeCell ref="AS9:AV11"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="I9:N11"/>
+    <mergeCell ref="O9:R11"/>
+    <mergeCell ref="S9:X11"/>
+    <mergeCell ref="AA9:AD11"/>
+    <mergeCell ref="AE9:AJ11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:N17"/>
+    <mergeCell ref="O15:P17"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="S15:T17"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="AE15:AF17"/>
+    <mergeCell ref="AG15:AH17"/>
+    <mergeCell ref="AI15:AJ17"/>
+    <mergeCell ref="AK15:AL17"/>
+    <mergeCell ref="AM15:AN17"/>
+    <mergeCell ref="U15:V17"/>
+    <mergeCell ref="W15:X17"/>
+    <mergeCell ref="Y15:Z17"/>
+    <mergeCell ref="AA15:AB17"/>
+    <mergeCell ref="AC15:AD17"/>
     <mergeCell ref="AE12:AF14"/>
     <mergeCell ref="AG12:AH14"/>
     <mergeCell ref="AI12:AJ14"/>
@@ -2216,118 +2326,21 @@
     <mergeCell ref="AO15:AP17"/>
     <mergeCell ref="AQ15:AR17"/>
     <mergeCell ref="AS15:AT17"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BA12:BB14"/>
+    <mergeCell ref="BA15:BB17"/>
+    <mergeCell ref="AY12:AZ14"/>
+    <mergeCell ref="AO12:AP14"/>
+    <mergeCell ref="AQ12:AR14"/>
+    <mergeCell ref="AS12:AT14"/>
+    <mergeCell ref="AU12:AV14"/>
+    <mergeCell ref="AW12:AX14"/>
     <mergeCell ref="AU15:AV17"/>
     <mergeCell ref="AW15:AX17"/>
-    <mergeCell ref="AE15:AF17"/>
-    <mergeCell ref="AG15:AH17"/>
-    <mergeCell ref="AI15:AJ17"/>
-    <mergeCell ref="AK15:AL17"/>
-    <mergeCell ref="AM15:AN17"/>
-    <mergeCell ref="U15:V17"/>
-    <mergeCell ref="W15:X17"/>
-    <mergeCell ref="Y15:Z17"/>
-    <mergeCell ref="AA15:AB17"/>
-    <mergeCell ref="AC15:AD17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:N17"/>
-    <mergeCell ref="O15:P17"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="S15:T17"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="I15:J17"/>
     <mergeCell ref="AY2:AZ6"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="Y9:Z11"/>
-    <mergeCell ref="AI2:AJ6"/>
-    <mergeCell ref="AG2:AH6"/>
-    <mergeCell ref="AE2:AF6"/>
-    <mergeCell ref="AC2:AD6"/>
-    <mergeCell ref="AA2:AB6"/>
-    <mergeCell ref="AS2:AT6"/>
-    <mergeCell ref="AQ2:AR6"/>
-    <mergeCell ref="AO2:AP6"/>
-    <mergeCell ref="AM2:AN6"/>
-    <mergeCell ref="AK2:AL6"/>
-    <mergeCell ref="AK9:AN11"/>
-    <mergeCell ref="AS9:AV11"/>
     <mergeCell ref="AW9:AZ11"/>
     <mergeCell ref="AW8:AX8"/>
     <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="C9:H11"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="I9:N11"/>
-    <mergeCell ref="O9:R11"/>
-    <mergeCell ref="S9:X11"/>
-    <mergeCell ref="AA9:AD11"/>
-    <mergeCell ref="AE9:AJ11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AO9:AR11"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AU2:AV6"/>
-    <mergeCell ref="AW2:AX6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="Y2:Z6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="M2:N6"/>
-    <mergeCell ref="E2:F6"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="W2:X6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U2:V6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="O2:P6"/>
-    <mergeCell ref="Q2:R6"/>
-    <mergeCell ref="C2:D6"/>
-    <mergeCell ref="S2:T6"/>
-    <mergeCell ref="G2:H6"/>
-    <mergeCell ref="I2:J6"/>
-    <mergeCell ref="K2:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
+++ b/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>06/11/207</t>
   </si>
@@ -492,104 +492,104 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,41 +938,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15:X17"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8:AN8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" customWidth="1"/>
-    <col min="36" max="36" width="8.88671875" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" customWidth="1"/>
-    <col min="39" max="39" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1077,524 +1077,516 @@
         <v>42953</v>
       </c>
       <c r="AZ1" s="9"/>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="BB1" s="11"/>
+      <c r="BB1" s="42"/>
     </row>
-    <row r="2" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="20" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19" t="s">
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19" t="s">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19" t="s">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19" t="s">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="20" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="19" t="s">
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19" t="s">
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19" t="s">
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="15" t="s">
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="AZ2" s="15"/>
+      <c r="AZ2" s="43"/>
     </row>
-    <row r="3" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+    <row r="3" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
     </row>
-    <row r="4" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
+    <row r="4" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
     </row>
-    <row r="5" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
+    <row r="5" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
     </row>
-    <row r="6" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
+    <row r="6" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
     </row>
-    <row r="7" spans="1:54" s="6" customFormat="1" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:54" s="6" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="19" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19" t="s">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19" t="s">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19" t="s">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19" t="s">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19" t="s">
+      <c r="V7" s="12"/>
+      <c r="W7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19" t="s">
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19" t="s">
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19" t="s">
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19" t="s">
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19" t="s">
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19" t="s">
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19" t="s">
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19" t="s">
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19" t="s">
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19" t="s">
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19" t="s">
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="19" t="s">
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="19" t="s">
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
     </row>
-    <row r="8" spans="1:54" s="6" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:54" s="6" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="27" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="33" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="27" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="27" t="s">
+      <c r="T8" s="19"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="37" t="s">
+      <c r="X8" s="19"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="27" t="s">
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="27" t="s">
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="30"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="30"/>
-      <c r="AV8" s="30"/>
-      <c r="AW8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="28" t="s">
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AZ8" s="28"/>
+      <c r="AZ8" s="44"/>
     </row>
-    <row r="9" spans="1:54" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:54" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="26" t="s">
         <v>31</v>
       </c>
@@ -1611,12 +1603,12 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
       <c r="S9" s="26" t="s">
         <v>18</v>
       </c>
@@ -1625,16 +1617,16 @@
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
       <c r="X9" s="26"/>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="29" t="s">
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
       <c r="AE9" s="26" t="s">
         <v>32</v>
       </c>
@@ -1668,9 +1660,9 @@
       <c r="AY9" s="26"/>
       <c r="AZ9" s="26"/>
     </row>
-    <row r="10" spans="1:54" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:54" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1683,22 +1675,22 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
@@ -1722,9 +1714,9 @@
       <c r="AY10" s="26"/>
       <c r="AZ10" s="26"/>
     </row>
-    <row r="11" spans="1:54" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+    <row r="11" spans="1:54" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -1737,22 +1729,22 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
@@ -1776,426 +1768,562 @@
       <c r="AY11" s="26"/>
       <c r="AZ11" s="26"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41">
         <v>8</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
+      <c r="F12" s="41"/>
+      <c r="G12" s="41">
         <v>8</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12">
+      <c r="H12" s="41"/>
+      <c r="I12" s="41">
         <v>3</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12">
+      <c r="J12" s="41"/>
+      <c r="K12" s="41">
         <v>10</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12">
+      <c r="L12" s="41"/>
+      <c r="M12" s="41">
         <v>10</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12">
+      <c r="N12" s="41"/>
+      <c r="O12" s="41">
         <v>15</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12" t="s">
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12">
+      <c r="R12" s="41"/>
+      <c r="S12" s="41">
         <v>15</v>
       </c>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12">
+      <c r="T12" s="41"/>
+      <c r="U12" s="41">
         <v>10</v>
       </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12">
+      <c r="V12" s="41"/>
+      <c r="W12" s="41">
         <v>8</v>
       </c>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12" t="s">
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12">
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41">
         <v>12</v>
       </c>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12">
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41">
         <v>10</v>
       </c>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12">
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41">
         <v>11</v>
       </c>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12">
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41">
         <v>8</v>
       </c>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12">
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41">
         <v>8</v>
       </c>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12">
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41">
         <v>15</v>
       </c>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12">
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41">
         <v>8</v>
       </c>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12">
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41">
         <v>12</v>
       </c>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12">
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41">
         <v>10</v>
       </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12">
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41">
         <v>15</v>
       </c>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12">
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41">
         <v>8</v>
       </c>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12">
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41">
         <v>15</v>
       </c>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="12">
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41">
         <v>8</v>
       </c>
-      <c r="AZ12" s="12"/>
-      <c r="BA12" s="12">
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="41">
         <f>SUM(E12:AZ14)</f>
         <v>227</v>
       </c>
-      <c r="BB12" s="12"/>
+      <c r="BB12" s="41"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="12"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="12"/>
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="12"/>
-      <c r="BB13" s="12"/>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="12"/>
-      <c r="AX14" s="12"/>
-      <c r="AY14" s="12"/>
-      <c r="AZ14" s="12"/>
-      <c r="BA14" s="12"/>
-      <c r="BB14" s="12"/>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="41"/>
+      <c r="AZ14" s="41"/>
+      <c r="BA14" s="41"/>
+      <c r="BB14" s="41"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41">
         <v>10</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41">
         <v>6</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12">
+      <c r="H15" s="41"/>
+      <c r="I15" s="41">
         <v>3</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41">
         <v>12</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12">
+      <c r="L15" s="41"/>
+      <c r="M15" s="41">
         <v>12</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12">
+      <c r="N15" s="41"/>
+      <c r="O15" s="41">
         <v>6</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12">
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41">
         <v>8</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12">
+      <c r="R15" s="41"/>
+      <c r="S15" s="41">
         <v>10</v>
       </c>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12">
+      <c r="T15" s="41"/>
+      <c r="U15" s="41">
         <v>10</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12">
+      <c r="V15" s="41"/>
+      <c r="W15" s="41">
         <v>6</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="12">
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41">
+        <v>8</v>
+      </c>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41">
+        <v>8</v>
+      </c>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41">
+        <v>15</v>
+      </c>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41">
+        <v>12</v>
+      </c>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="41">
         <f>SUM(E15:AZ17)</f>
-        <v>83</v>
-      </c>
-      <c r="BB15" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="BB15" s="41"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="41"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="41"/>
+      <c r="AY16" s="41"/>
+      <c r="AZ16" s="41"/>
+      <c r="BA16" s="41"/>
+      <c r="BB16" s="41"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="41"/>
+      <c r="AX17" s="41"/>
+      <c r="AY17" s="41"/>
+      <c r="AZ17" s="41"/>
+      <c r="BA17" s="41"/>
+      <c r="BB17" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
+  <mergeCells count="144">
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BA12:BB14"/>
+    <mergeCell ref="BA15:BB17"/>
+    <mergeCell ref="AY12:AZ14"/>
+    <mergeCell ref="AO12:AP14"/>
+    <mergeCell ref="AQ12:AR14"/>
+    <mergeCell ref="AS12:AT14"/>
+    <mergeCell ref="AU12:AV14"/>
+    <mergeCell ref="AW12:AX14"/>
+    <mergeCell ref="AU15:AV17"/>
+    <mergeCell ref="AW15:AX17"/>
+    <mergeCell ref="AY2:AZ6"/>
+    <mergeCell ref="AW9:AZ11"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="AE12:AF14"/>
+    <mergeCell ref="AG12:AH14"/>
+    <mergeCell ref="AI12:AJ14"/>
+    <mergeCell ref="AK12:AL14"/>
+    <mergeCell ref="AM12:AN14"/>
+    <mergeCell ref="AY15:AZ17"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:D14"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:L14"/>
+    <mergeCell ref="M12:N14"/>
+    <mergeCell ref="O12:P14"/>
+    <mergeCell ref="Q12:R14"/>
+    <mergeCell ref="S12:T14"/>
+    <mergeCell ref="U12:V14"/>
+    <mergeCell ref="W12:X14"/>
+    <mergeCell ref="Y12:Z14"/>
+    <mergeCell ref="AA12:AB14"/>
+    <mergeCell ref="AC12:AD14"/>
+    <mergeCell ref="AO15:AP17"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AS15:AT17"/>
+    <mergeCell ref="AE15:AF17"/>
+    <mergeCell ref="AG15:AH17"/>
+    <mergeCell ref="AI15:AJ17"/>
+    <mergeCell ref="AK15:AL17"/>
+    <mergeCell ref="AM15:AN17"/>
+    <mergeCell ref="U15:V17"/>
+    <mergeCell ref="W15:X17"/>
+    <mergeCell ref="Y15:Z17"/>
+    <mergeCell ref="AA15:AB17"/>
+    <mergeCell ref="AC15:AD17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:N17"/>
+    <mergeCell ref="O15:P17"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="S15:T17"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AI2:AJ6"/>
+    <mergeCell ref="AG2:AH6"/>
+    <mergeCell ref="AE2:AF6"/>
+    <mergeCell ref="AC2:AD6"/>
+    <mergeCell ref="AA2:AB6"/>
+    <mergeCell ref="AS2:AT6"/>
+    <mergeCell ref="AQ2:AR6"/>
+    <mergeCell ref="AO2:AP6"/>
+    <mergeCell ref="AM2:AN6"/>
+    <mergeCell ref="AK2:AL6"/>
+    <mergeCell ref="AK9:AN11"/>
+    <mergeCell ref="AS9:AV11"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="I9:N11"/>
+    <mergeCell ref="O9:R11"/>
+    <mergeCell ref="S9:X11"/>
+    <mergeCell ref="AA9:AD11"/>
+    <mergeCell ref="AE9:AJ11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AO9:AR11"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="AU2:AV6"/>
+    <mergeCell ref="AW2:AX6"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="Y2:Z6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="E2:F6"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="W2:X6"/>
@@ -2220,127 +2348,6 @@
     <mergeCell ref="I2:J6"/>
     <mergeCell ref="K2:L6"/>
     <mergeCell ref="M2:N6"/>
-    <mergeCell ref="E2:F6"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AO9:AR11"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AU2:AV6"/>
-    <mergeCell ref="AW2:AX6"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="Y2:Z6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="Y9:Z11"/>
-    <mergeCell ref="AI2:AJ6"/>
-    <mergeCell ref="AG2:AH6"/>
-    <mergeCell ref="AE2:AF6"/>
-    <mergeCell ref="AC2:AD6"/>
-    <mergeCell ref="AA2:AB6"/>
-    <mergeCell ref="AS2:AT6"/>
-    <mergeCell ref="AQ2:AR6"/>
-    <mergeCell ref="AO2:AP6"/>
-    <mergeCell ref="AM2:AN6"/>
-    <mergeCell ref="AK2:AL6"/>
-    <mergeCell ref="AK9:AN11"/>
-    <mergeCell ref="AS9:AV11"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="C9:H11"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="I9:N11"/>
-    <mergeCell ref="O9:R11"/>
-    <mergeCell ref="S9:X11"/>
-    <mergeCell ref="AA9:AD11"/>
-    <mergeCell ref="AE9:AJ11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:N17"/>
-    <mergeCell ref="O15:P17"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="S15:T17"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="I15:J17"/>
-    <mergeCell ref="AE15:AF17"/>
-    <mergeCell ref="AG15:AH17"/>
-    <mergeCell ref="AI15:AJ17"/>
-    <mergeCell ref="AK15:AL17"/>
-    <mergeCell ref="AM15:AN17"/>
-    <mergeCell ref="U15:V17"/>
-    <mergeCell ref="W15:X17"/>
-    <mergeCell ref="Y15:Z17"/>
-    <mergeCell ref="AA15:AB17"/>
-    <mergeCell ref="AC15:AD17"/>
-    <mergeCell ref="AE12:AF14"/>
-    <mergeCell ref="AG12:AH14"/>
-    <mergeCell ref="AI12:AJ14"/>
-    <mergeCell ref="AK12:AL14"/>
-    <mergeCell ref="AM12:AN14"/>
-    <mergeCell ref="AY15:AZ17"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:D14"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:L14"/>
-    <mergeCell ref="M12:N14"/>
-    <mergeCell ref="O12:P14"/>
-    <mergeCell ref="Q12:R14"/>
-    <mergeCell ref="S12:T14"/>
-    <mergeCell ref="U12:V14"/>
-    <mergeCell ref="W12:X14"/>
-    <mergeCell ref="Y12:Z14"/>
-    <mergeCell ref="AA12:AB14"/>
-    <mergeCell ref="AC12:AD14"/>
-    <mergeCell ref="AO15:AP17"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AS15:AT17"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BA12:BB14"/>
-    <mergeCell ref="BA15:BB17"/>
-    <mergeCell ref="AY12:AZ14"/>
-    <mergeCell ref="AO12:AP14"/>
-    <mergeCell ref="AQ12:AR14"/>
-    <mergeCell ref="AS12:AT14"/>
-    <mergeCell ref="AU12:AV14"/>
-    <mergeCell ref="AW12:AX14"/>
-    <mergeCell ref="AU15:AV17"/>
-    <mergeCell ref="AW15:AX17"/>
-    <mergeCell ref="AY2:AZ6"/>
-    <mergeCell ref="AW9:AZ11"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AY8:AZ8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
+++ b/Project Documentation/Capstone Documents/Hagerman_Kendrick_Schedule.xlsx
@@ -492,15 +492,97 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -508,88 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8:AN8"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO15" sqref="AO15:AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,1148 +1077,1240 @@
         <v>42953</v>
       </c>
       <c r="AZ1" s="9"/>
-      <c r="BA1" s="42" t="s">
+      <c r="BA1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BB1" s="42"/>
+      <c r="BB1" s="11"/>
     </row>
     <row r="2" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12" t="s">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12" t="s">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12" t="s">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="s">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12" t="s">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12" t="s">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12" t="s">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="12" t="s">
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12" t="s">
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12" t="s">
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="43" t="s">
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AZ2" s="43"/>
+      <c r="AZ2" s="13"/>
     </row>
     <row r="3" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
     </row>
     <row r="4" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
     </row>
     <row r="5" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="22"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
     </row>
     <row r="6" spans="1:54" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
     </row>
     <row r="7" spans="1:54" s="6" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="22"/>
+      <c r="M7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12" t="s">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12" t="s">
+      <c r="R7" s="22"/>
+      <c r="S7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12" t="s">
+      <c r="T7" s="22"/>
+      <c r="U7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="s">
+      <c r="V7" s="22"/>
+      <c r="W7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12" t="s">
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12" t="s">
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12" t="s">
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12" t="s">
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12" t="s">
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12" t="s">
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12" t="s">
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12" t="s">
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12" t="s">
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12" t="s">
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12" t="s">
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="12" t="s">
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="12" t="s">
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
     </row>
     <row r="8" spans="1:54" s="6" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="27" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="19" t="s">
+      <c r="R8" s="32"/>
+      <c r="S8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="19" t="s">
+      <c r="T8" s="15"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="19"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="24" t="s">
+      <c r="X8" s="15"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="19" t="s">
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="19" t="s">
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="44" t="s">
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AZ8" s="44"/>
+      <c r="AZ8" s="16"/>
     </row>
     <row r="9" spans="1:54" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="40" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="26" t="s">
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="37" t="s">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="40" t="s">
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="26" t="s">
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26" t="s">
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26" t="s">
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26" t="s">
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26" t="s">
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
     </row>
     <row r="10" spans="1:54" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
     </row>
     <row r="11" spans="1:54" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>8</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>8</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>3</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
         <v>10</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>10</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
         <v>15</v>
       </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41" t="s">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12">
         <v>15</v>
       </c>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41">
+      <c r="T12" s="12"/>
+      <c r="U12" s="12">
         <v>10</v>
       </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41">
+      <c r="V12" s="12"/>
+      <c r="W12" s="12">
         <v>8</v>
       </c>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41" t="s">
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41">
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12">
         <v>12</v>
       </c>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41">
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12">
         <v>10</v>
       </c>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41">
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12">
         <v>11</v>
       </c>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41">
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12">
         <v>8</v>
       </c>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41">
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12">
         <v>8</v>
       </c>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41">
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12">
         <v>15</v>
       </c>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41">
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12">
         <v>8</v>
       </c>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41">
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12">
         <v>12</v>
       </c>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41">
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12">
         <v>10</v>
       </c>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41">
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12">
         <v>15</v>
       </c>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41">
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12">
         <v>8</v>
       </c>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41">
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12">
         <v>15</v>
       </c>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41">
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12">
         <v>8</v>
       </c>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41">
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12">
         <f>SUM(E12:AZ14)</f>
         <v>227</v>
       </c>
-      <c r="BB12" s="41"/>
+      <c r="BB12" s="12"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>10</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>6</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
         <v>3</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
         <v>12</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
         <v>12</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41">
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
         <v>6</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12">
         <v>8</v>
       </c>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41">
+      <c r="R15" s="12"/>
+      <c r="S15" s="12">
         <v>10</v>
       </c>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41">
+      <c r="T15" s="12"/>
+      <c r="U15" s="12">
         <v>10</v>
       </c>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41">
+      <c r="V15" s="12"/>
+      <c r="W15" s="12">
         <v>6</v>
       </c>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41">
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12">
         <v>6</v>
       </c>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41">
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12">
         <v>14</v>
       </c>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41">
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12">
         <v>7</v>
       </c>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41">
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12">
         <v>8</v>
       </c>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41">
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12">
         <v>8</v>
       </c>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41">
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12">
         <v>6</v>
       </c>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41">
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12">
         <v>15</v>
       </c>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41">
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12">
         <v>12</v>
       </c>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41">
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12">
+        <v>14</v>
+      </c>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12">
         <f>SUM(E15:AZ17)</f>
-        <v>159</v>
-      </c>
-      <c r="BB15" s="41"/>
+        <v>173</v>
+      </c>
+      <c r="BB15" s="12"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="41"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BA12:BB14"/>
-    <mergeCell ref="BA15:BB17"/>
-    <mergeCell ref="AY12:AZ14"/>
-    <mergeCell ref="AO12:AP14"/>
-    <mergeCell ref="AQ12:AR14"/>
-    <mergeCell ref="AS12:AT14"/>
-    <mergeCell ref="AU12:AV14"/>
-    <mergeCell ref="AW12:AX14"/>
-    <mergeCell ref="AU15:AV17"/>
-    <mergeCell ref="AW15:AX17"/>
-    <mergeCell ref="AY2:AZ6"/>
-    <mergeCell ref="AW9:AZ11"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="W2:X6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U2:V6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="O2:P6"/>
+    <mergeCell ref="Q2:R6"/>
+    <mergeCell ref="C2:D6"/>
+    <mergeCell ref="S2:T6"/>
+    <mergeCell ref="G2:H6"/>
+    <mergeCell ref="I2:J6"/>
+    <mergeCell ref="K2:L6"/>
+    <mergeCell ref="M2:N6"/>
+    <mergeCell ref="E2:F6"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AO9:AR11"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="AU2:AV6"/>
+    <mergeCell ref="AW2:AX6"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="Y2:Z6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AI2:AJ6"/>
+    <mergeCell ref="AG2:AH6"/>
+    <mergeCell ref="AE2:AF6"/>
+    <mergeCell ref="AC2:AD6"/>
+    <mergeCell ref="AA2:AB6"/>
+    <mergeCell ref="AS2:AT6"/>
+    <mergeCell ref="AQ2:AR6"/>
+    <mergeCell ref="AO2:AP6"/>
+    <mergeCell ref="AM2:AN6"/>
+    <mergeCell ref="AK2:AL6"/>
+    <mergeCell ref="AK9:AN11"/>
+    <mergeCell ref="AS9:AV11"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="I9:N11"/>
+    <mergeCell ref="O9:R11"/>
+    <mergeCell ref="S9:X11"/>
+    <mergeCell ref="AA9:AD11"/>
+    <mergeCell ref="AE9:AJ11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:N17"/>
+    <mergeCell ref="O15:P17"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="S15:T17"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="AE15:AF17"/>
+    <mergeCell ref="AG15:AH17"/>
+    <mergeCell ref="AI15:AJ17"/>
+    <mergeCell ref="AK15:AL17"/>
+    <mergeCell ref="AM15:AN17"/>
+    <mergeCell ref="U15:V17"/>
+    <mergeCell ref="W15:X17"/>
+    <mergeCell ref="Y15:Z17"/>
+    <mergeCell ref="AA15:AB17"/>
+    <mergeCell ref="AC15:AD17"/>
     <mergeCell ref="AE12:AF14"/>
     <mergeCell ref="AG12:AH14"/>
     <mergeCell ref="AI12:AJ14"/>
@@ -2243,111 +2335,21 @@
     <mergeCell ref="AO15:AP17"/>
     <mergeCell ref="AQ15:AR17"/>
     <mergeCell ref="AS15:AT17"/>
-    <mergeCell ref="AE15:AF17"/>
-    <mergeCell ref="AG15:AH17"/>
-    <mergeCell ref="AI15:AJ17"/>
-    <mergeCell ref="AK15:AL17"/>
-    <mergeCell ref="AM15:AN17"/>
-    <mergeCell ref="U15:V17"/>
-    <mergeCell ref="W15:X17"/>
-    <mergeCell ref="Y15:Z17"/>
-    <mergeCell ref="AA15:AB17"/>
-    <mergeCell ref="AC15:AD17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:N17"/>
-    <mergeCell ref="O15:P17"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="S15:T17"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="I15:J17"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="Y9:Z11"/>
-    <mergeCell ref="AI2:AJ6"/>
-    <mergeCell ref="AG2:AH6"/>
-    <mergeCell ref="AE2:AF6"/>
-    <mergeCell ref="AC2:AD6"/>
-    <mergeCell ref="AA2:AB6"/>
-    <mergeCell ref="AS2:AT6"/>
-    <mergeCell ref="AQ2:AR6"/>
-    <mergeCell ref="AO2:AP6"/>
-    <mergeCell ref="AM2:AN6"/>
-    <mergeCell ref="AK2:AL6"/>
-    <mergeCell ref="AK9:AN11"/>
-    <mergeCell ref="AS9:AV11"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="C9:H11"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="I9:N11"/>
-    <mergeCell ref="O9:R11"/>
-    <mergeCell ref="S9:X11"/>
-    <mergeCell ref="AA9:AD11"/>
-    <mergeCell ref="AE9:AJ11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AO9:AR11"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AU2:AV6"/>
-    <mergeCell ref="AW2:AX6"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="Y2:Z6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="E2:F6"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="W2:X6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U2:V6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="O2:P6"/>
-    <mergeCell ref="Q2:R6"/>
-    <mergeCell ref="C2:D6"/>
-    <mergeCell ref="S2:T6"/>
-    <mergeCell ref="G2:H6"/>
-    <mergeCell ref="I2:J6"/>
-    <mergeCell ref="K2:L6"/>
-    <mergeCell ref="M2:N6"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BA12:BB14"/>
+    <mergeCell ref="BA15:BB17"/>
+    <mergeCell ref="AY12:AZ14"/>
+    <mergeCell ref="AO12:AP14"/>
+    <mergeCell ref="AQ12:AR14"/>
+    <mergeCell ref="AS12:AT14"/>
+    <mergeCell ref="AU12:AV14"/>
+    <mergeCell ref="AW12:AX14"/>
+    <mergeCell ref="AU15:AV17"/>
+    <mergeCell ref="AW15:AX17"/>
+    <mergeCell ref="AY2:AZ6"/>
+    <mergeCell ref="AW9:AZ11"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AY8:AZ8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
